--- a/src/blackList/黑名单.xlsx
+++ b/src/blackList/黑名单.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="黑名单码表" sheetId="2" r:id="rId2"/>
+    <sheet name="填写说明" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="99">
   <si>
     <t>NI 联网核查</t>
   </si>
@@ -72,7 +72,7 @@
     <t>核查原因</t>
   </si>
   <si>
-    <t>需要阻塞交易的编码</t>
+    <t>需要阻塞交易的黑名单编码</t>
   </si>
   <si>
     <t>BN 黑名单</t>
@@ -199,6 +199,120 @@
   </si>
   <si>
     <t>00302009_01</t>
+  </si>
+  <si>
+    <t>代码</t>
+  </si>
+  <si>
+    <t>是否阻塞交易</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>小额农贷黑名单</t>
+  </si>
+  <si>
+    <t>收单支付系统商户黑名单</t>
+  </si>
+  <si>
+    <t>贷款内控客户黑名单</t>
+  </si>
+  <si>
+    <t>贷款禁入客户黑名单</t>
+  </si>
+  <si>
+    <t>贷款自主支付黑名单</t>
+  </si>
+  <si>
+    <t>电信诈骗已冻结对私卡号需暂停所有业务（不收不付，禁止换卡，其他未尽事宜参照司法冻结账户处理），全部卡主柜面确认本行关联帐号</t>
+  </si>
+  <si>
+    <t>电信诈骗已冻结存折号需暂停所有业务（不收不付，禁止换折，其他未尽事宜参照司法冻结账户处理），全部卡主柜面确认本行关联帐号</t>
+  </si>
+  <si>
+    <t>电信诈骗已冻结对公账号需暂停所有业务（不收不付，其他未尽事宜参照司法冻结账户处理），全部账户主柜面确认本行关联帐号</t>
+  </si>
+  <si>
+    <t>电信诈骗已冻结支付账号需暂停所有业务</t>
+  </si>
+  <si>
+    <t>公安机关认定买卖银行账户和支付账户、冒名开户、为违法犯罪活动转移赃款提供便利的个人或相关组织者证件号，5年内暂停其银行账户非柜面业务、支付账户所有业务，3年内不得为其新开立账户</t>
+  </si>
+  <si>
+    <t>买卖银行账户和支付账户、冒名开户、为违法犯罪活动转移赃款提供便利的机构或特约商户证件号，5年内暂停其银行账户非柜面业务、支付账户所有业务，3年内不得为其新开立账户</t>
+  </si>
+  <si>
+    <t>案件侦办过程中可疑对私卡号需暂停非柜面业务（86号文规定的手机、网上、自助柜员机等主动发起业务渠道）</t>
+  </si>
+  <si>
+    <t>案件侦办过程中可疑存折号需暂停非柜面业务（86号文规定的手机、网上、自助柜员机等主动发起业务渠道）</t>
+  </si>
+  <si>
+    <t>案件侦办过程中可疑对公账号需暂停非柜面业务（86号文规定的手机、网上、自助柜员机等主动发起业务渠道）</t>
+  </si>
+  <si>
+    <t>案件侦办过程中可疑支付帐号需风险提示（86号文规定）</t>
+  </si>
+  <si>
+    <t>案件侦办过程中可疑人员身份证号，要求通过100403接口上报证件关联对私业务凭证号</t>
+  </si>
+  <si>
+    <t>案件侦办过程中可疑组织证件号，要求通过100403接口上报证件关联对公业务凭证号</t>
+  </si>
+  <si>
+    <t>被全国企业信用信息公示系统列入“严重违法失信企业名单”的机构证件号，银行和支付机构不得为其开户，情况属实的，应当在3个月内暂停其业务</t>
+  </si>
+  <si>
+    <t>经银行和支付机构核实单位注册地址不存在或者虚构经营场所的单位证件号，银行和支付机构不得为其开户</t>
+  </si>
+  <si>
+    <t>经过工信部认定无法证明与银行账号绑定合理性的手机号，应当对相关银行账户暂停非柜面业务，支付账户暂停所有业务（名单数据为手机号）</t>
+  </si>
+  <si>
+    <t>中国支付清算协会、银行卡清算机构移交”金融信用信息基础数据库”管理的黑名单数据（暂定）</t>
+  </si>
+  <si>
+    <t>呼叫中心黑名单</t>
+  </si>
+  <si>
+    <t>集中报送行内黑名单</t>
+  </si>
+  <si>
+    <t>集中报送行外黑名单</t>
+  </si>
+  <si>
+    <t>能力中心贷款黑名单</t>
+  </si>
+  <si>
+    <t>能力中心信用卡黑名单</t>
+  </si>
+  <si>
+    <t>小额农贷内部黑名单</t>
+  </si>
+  <si>
+    <t>小额农贷银监会通报黑名单</t>
+  </si>
+  <si>
+    <t>小额农贷人行通报黑名单</t>
+  </si>
+  <si>
+    <t>取消营销短信</t>
+  </si>
+  <si>
+    <t>屏蔽小额农贷短信</t>
+  </si>
+  <si>
+    <t>新一代统一认证</t>
+  </si>
+  <si>
+    <t>新一代能力中心</t>
+  </si>
+  <si>
+    <t>短信银行报警管理员</t>
+  </si>
+  <si>
+    <t>同一交易码如果多个条件且关系 此项 写成数字相同  否则都写成不同数字</t>
   </si>
 </sst>
 </file>
@@ -206,8 +320,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -255,9 +369,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,13 +439,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,9 +461,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -326,45 +485,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,15 +498,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -400,13 +514,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,7 +610,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,13 +682,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,139 +694,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,13 +729,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,32 +801,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -714,10 +834,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -726,144 +846,159 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1238,600 +1373,600 @@
   <sheetPr/>
   <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="27" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.5833333333333" style="1" customWidth="1"/>
-    <col min="12" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="28.3333333333333" style="1" customWidth="1"/>
-    <col min="19" max="19" width="19.25" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="11" style="7" customWidth="1"/>
+    <col min="2" max="8" width="9" style="7"/>
+    <col min="9" max="9" width="27" style="7" customWidth="1"/>
+    <col min="10" max="10" width="15.5" style="7" customWidth="1"/>
+    <col min="11" max="11" width="24.5833333333333" style="7" customWidth="1"/>
+    <col min="12" max="17" width="9" style="7"/>
+    <col min="18" max="18" width="28.3333333333333" style="7" customWidth="1"/>
+    <col min="19" max="19" width="19.25" style="7" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="101.25" spans="1:19">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" s="7" customFormat="1" ht="60.75" spans="1:19">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:19">
-      <c r="A2" s="3" t="s">
+    <row r="2" s="7" customFormat="1" spans="1:19">
+      <c r="A2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="8">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="8">
         <v>1</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3" t="s">
+      <c r="K2" s="8"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="10"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:19">
-      <c r="A3" s="3" t="s">
+      <c r="S2" s="15"/>
+    </row>
+    <row r="3" s="7" customFormat="1" spans="1:19">
+      <c r="A3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="8">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="8">
         <v>1</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3" t="s">
+      <c r="K3" s="8"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="S3" s="10"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:19">
-      <c r="A4" s="3" t="s">
+      <c r="S3" s="15"/>
+    </row>
+    <row r="4" s="7" customFormat="1" spans="1:19">
+      <c r="A4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="8">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="8">
         <v>1</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3" t="s">
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="S4" s="10"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:19">
-      <c r="A5" s="3" t="s">
+      <c r="S4" s="15"/>
+    </row>
+    <row r="5" s="7" customFormat="1" spans="1:19">
+      <c r="A5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="8">
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="8">
         <v>1</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3" t="s">
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="S5" s="10"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:19">
-      <c r="A6" s="3" t="s">
+      <c r="S5" s="15"/>
+    </row>
+    <row r="6" s="7" customFormat="1" spans="1:19">
+      <c r="A6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="8">
         <v>5</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="8">
         <v>1</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3" t="s">
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="S6" s="10"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="15" spans="1:19">
-      <c r="A7" s="3" t="s">
+      <c r="S6" s="15"/>
+    </row>
+    <row r="7" s="7" customFormat="1" ht="15" spans="1:19">
+      <c r="A7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="8">
         <v>6</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="8">
         <v>1</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="8"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3" t="s">
+      <c r="K7" s="13"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="S7" s="10"/>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="15" spans="1:19">
-      <c r="A8" s="3" t="s">
+      <c r="S7" s="15"/>
+    </row>
+    <row r="8" s="7" customFormat="1" ht="15" spans="1:19">
+      <c r="A8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="8">
         <v>7</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="8">
         <v>1</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="8"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3" t="s">
+      <c r="K8" s="13"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="S8" s="10"/>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:19">
-      <c r="A9" s="3" t="s">
+      <c r="S8" s="15"/>
+    </row>
+    <row r="9" s="7" customFormat="1" spans="1:19">
+      <c r="A9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="8">
         <v>8</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="8">
         <v>1</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3" t="s">
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="S9" s="10"/>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:19">
-      <c r="A10" s="3" t="s">
+      <c r="S9" s="15"/>
+    </row>
+    <row r="10" s="7" customFormat="1" spans="1:19">
+      <c r="A10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="8">
         <v>9</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="8">
         <v>1</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3" t="s">
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="S10" s="10"/>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:19">
-      <c r="A11" s="3" t="s">
+      <c r="S10" s="15"/>
+    </row>
+    <row r="11" s="7" customFormat="1" spans="1:19">
+      <c r="A11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="8">
         <v>10</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="8">
         <v>1</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3" t="s">
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="S11" s="10"/>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:19">
-      <c r="A12" s="3" t="s">
+      <c r="S11" s="15"/>
+    </row>
+    <row r="12" s="7" customFormat="1" spans="1:19">
+      <c r="A12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="8">
         <v>11</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="8">
         <v>1</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3" t="s">
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="S12" s="10"/>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:19">
-      <c r="A13" s="3" t="s">
+      <c r="S12" s="15"/>
+    </row>
+    <row r="13" s="7" customFormat="1" spans="1:19">
+      <c r="A13" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="8">
         <v>12</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="8">
         <v>1</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="I13" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3" t="s">
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="S13" s="10"/>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="10:10">
-      <c r="J14" s="9"/>
+      <c r="S13" s="15"/>
+    </row>
+    <row r="14" s="7" customFormat="1" spans="10:10">
+      <c r="J14" s="14"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B13">
@@ -1856,14 +1991,405 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="18" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.25" customWidth="1"/>
+    <col min="3" max="3" width="166.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="5">
+        <v>1042000012</v>
+      </c>
+      <c r="B2" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="5">
+        <v>1042000018</v>
+      </c>
+      <c r="B3" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="5">
+        <v>1042000020</v>
+      </c>
+      <c r="B4" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="5">
+        <v>1042000021</v>
+      </c>
+      <c r="B5" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5">
+        <v>1042000022</v>
+      </c>
+      <c r="B6" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="5">
+        <v>1042000023</v>
+      </c>
+      <c r="B7" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="5">
+        <v>1042000024</v>
+      </c>
+      <c r="B8" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="5">
+        <v>1042000025</v>
+      </c>
+      <c r="B9" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5">
+        <v>1042000026</v>
+      </c>
+      <c r="B10" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="5">
+        <v>1042000027</v>
+      </c>
+      <c r="B11" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="5">
+        <v>1042000028</v>
+      </c>
+      <c r="B12" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="5">
+        <v>1042000029</v>
+      </c>
+      <c r="B13" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="5">
+        <v>1042000030</v>
+      </c>
+      <c r="B14" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="5">
+        <v>1042000031</v>
+      </c>
+      <c r="B15" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="5">
+        <v>1042000032</v>
+      </c>
+      <c r="B16" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="5">
+        <v>1042000033</v>
+      </c>
+      <c r="B17" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="5">
+        <v>1042000034</v>
+      </c>
+      <c r="B18" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="5">
+        <v>1042000035</v>
+      </c>
+      <c r="B19" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="5">
+        <v>1042000036</v>
+      </c>
+      <c r="B20" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="5">
+        <v>1042000037</v>
+      </c>
+      <c r="B21" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="5">
+        <v>1042000038</v>
+      </c>
+      <c r="B22" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="5">
+        <v>1042000039</v>
+      </c>
+      <c r="B23" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="5">
+        <v>1042000040</v>
+      </c>
+      <c r="B24" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="5">
+        <v>1042000041</v>
+      </c>
+      <c r="B25" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="5">
+        <v>1042000042</v>
+      </c>
+      <c r="B26" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="5">
+        <v>1042000043</v>
+      </c>
+      <c r="B27" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="5">
+        <v>1042000044</v>
+      </c>
+      <c r="B28" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="5">
+        <v>1042000045</v>
+      </c>
+      <c r="B29" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="5">
+        <v>1042000046</v>
+      </c>
+      <c r="B30" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="5">
+        <v>1042000047</v>
+      </c>
+      <c r="B31" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="5">
+        <v>1042000048</v>
+      </c>
+      <c r="B32" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="5">
+        <v>1042000049</v>
+      </c>
+      <c r="B33" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="5">
+        <v>1042000050</v>
+      </c>
+      <c r="B34" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="5">
+        <v>1042000051</v>
+      </c>
+      <c r="B35" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1873,14 +2399,28 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A2:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="40.5" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/src/blackList/黑名单.xlsx
+++ b/src/blackList/黑名单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="2"/>
+    <workbookView windowWidth="22488" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132">
   <si>
     <t>NI 联网核查</t>
   </si>
@@ -199,6 +199,105 @@
   </si>
   <si>
     <t>00302009_01</t>
+  </si>
+  <si>
+    <t>BN00013</t>
+  </si>
+  <si>
+    <t>00103003</t>
+  </si>
+  <si>
+    <t>00103003_01</t>
+  </si>
+  <si>
+    <t>BN00014</t>
+  </si>
+  <si>
+    <t>00103004</t>
+  </si>
+  <si>
+    <t>00103004_01</t>
+  </si>
+  <si>
+    <t>BN00015</t>
+  </si>
+  <si>
+    <t>00303006</t>
+  </si>
+  <si>
+    <t>00303006_01</t>
+  </si>
+  <si>
+    <t>BN00016</t>
+  </si>
+  <si>
+    <t>00303007</t>
+  </si>
+  <si>
+    <t>00303007_01</t>
+  </si>
+  <si>
+    <t>BN00017</t>
+  </si>
+  <si>
+    <t>00302017</t>
+  </si>
+  <si>
+    <t>00302017_01</t>
+  </si>
+  <si>
+    <t>BN00018</t>
+  </si>
+  <si>
+    <t>00301015</t>
+  </si>
+  <si>
+    <t>00301015_01</t>
+  </si>
+  <si>
+    <t>BN00019</t>
+  </si>
+  <si>
+    <t>00301017</t>
+  </si>
+  <si>
+    <t>00301017_01</t>
+  </si>
+  <si>
+    <t>BN00020</t>
+  </si>
+  <si>
+    <t>00302007</t>
+  </si>
+  <si>
+    <t>00302007_01</t>
+  </si>
+  <si>
+    <t>BN00021</t>
+  </si>
+  <si>
+    <t>00302013</t>
+  </si>
+  <si>
+    <t>00302013_01</t>
+  </si>
+  <si>
+    <t>BN00022</t>
+  </si>
+  <si>
+    <t>00302018</t>
+  </si>
+  <si>
+    <t>00302018_01</t>
+  </si>
+  <si>
+    <t>BN00023</t>
+  </si>
+  <si>
+    <t>00303002</t>
+  </si>
+  <si>
+    <t>00303002_01</t>
   </si>
   <si>
     <t>代码</t>
@@ -355,24 +454,11 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -391,19 +477,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -422,8 +507,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -434,6 +565,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -452,47 +591,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -520,187 +619,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,8 +860,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -771,8 +872,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -792,26 +893,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -826,6 +907,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -834,10 +933,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -846,137 +945,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1011,7 +1110,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1"/>
   </cellXfs>
@@ -1371,13 +1469,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11" style="7" customWidth="1"/>
     <col min="2" max="8" width="9" style="7"/>
@@ -1390,7 +1488,7 @@
     <col min="20" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" ht="60.75" spans="1:19">
+    <row r="1" s="7" customFormat="1" ht="61.2" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1490,7 +1588,7 @@
       <c r="R2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="15"/>
+      <c r="S2" s="14"/>
     </row>
     <row r="3" s="7" customFormat="1" spans="1:19">
       <c r="A3" s="8" t="s">
@@ -1533,7 +1631,7 @@
       <c r="R3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="S3" s="15"/>
+      <c r="S3" s="14"/>
     </row>
     <row r="4" s="7" customFormat="1" spans="1:19">
       <c r="A4" s="8" t="s">
@@ -1557,10 +1655,10 @@
       <c r="G4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="15" t="s">
         <v>33</v>
       </c>
       <c r="J4" s="8" t="s">
@@ -1576,7 +1674,7 @@
       <c r="R4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="S4" s="15"/>
+      <c r="S4" s="14"/>
     </row>
     <row r="5" s="7" customFormat="1" spans="1:19">
       <c r="A5" s="8" t="s">
@@ -1600,10 +1698,10 @@
       <c r="G5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="15" t="s">
         <v>36</v>
       </c>
       <c r="J5" s="8" t="s">
@@ -1619,7 +1717,7 @@
       <c r="R5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="S5" s="15"/>
+      <c r="S5" s="14"/>
     </row>
     <row r="6" s="7" customFormat="1" spans="1:19">
       <c r="A6" s="8" t="s">
@@ -1643,10 +1741,10 @@
       <c r="G6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="15" t="s">
         <v>39</v>
       </c>
       <c r="J6" s="8" t="s">
@@ -1662,9 +1760,9 @@
       <c r="R6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="S6" s="15"/>
-    </row>
-    <row r="7" s="7" customFormat="1" ht="15" spans="1:19">
+      <c r="S6" s="14"/>
+    </row>
+    <row r="7" s="7" customFormat="1" spans="1:19">
       <c r="A7" s="8" t="s">
         <v>19</v>
       </c>
@@ -1705,9 +1803,9 @@
       <c r="R7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="S7" s="15"/>
-    </row>
-    <row r="8" s="7" customFormat="1" ht="15" spans="1:19">
+      <c r="S7" s="14"/>
+    </row>
+    <row r="8" s="7" customFormat="1" spans="1:19">
       <c r="A8" s="8" t="s">
         <v>19</v>
       </c>
@@ -1748,7 +1846,7 @@
       <c r="R8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="S8" s="15"/>
+      <c r="S8" s="14"/>
     </row>
     <row r="9" s="7" customFormat="1" spans="1:19">
       <c r="A9" s="8" t="s">
@@ -1791,7 +1889,7 @@
       <c r="R9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="S9" s="15"/>
+      <c r="S9" s="14"/>
     </row>
     <row r="10" s="7" customFormat="1" spans="1:19">
       <c r="A10" s="8" t="s">
@@ -1834,7 +1932,7 @@
       <c r="R10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="S10" s="15"/>
+      <c r="S10" s="14"/>
     </row>
     <row r="11" s="7" customFormat="1" spans="1:19">
       <c r="A11" s="8" t="s">
@@ -1858,10 +1956,10 @@
       <c r="G11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="15" t="s">
         <v>54</v>
       </c>
       <c r="J11" s="8" t="s">
@@ -1877,7 +1975,7 @@
       <c r="R11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="S11" s="15"/>
+      <c r="S11" s="14"/>
     </row>
     <row r="12" s="7" customFormat="1" spans="1:19">
       <c r="A12" s="8" t="s">
@@ -1901,10 +1999,10 @@
       <c r="G12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="I12" s="16" t="s">
+      <c r="I12" s="15" t="s">
         <v>57</v>
       </c>
       <c r="J12" s="8" t="s">
@@ -1920,7 +2018,7 @@
       <c r="R12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="S12" s="15"/>
+      <c r="S12" s="14"/>
     </row>
     <row r="13" s="7" customFormat="1" spans="1:19">
       <c r="A13" s="8" t="s">
@@ -1944,10 +2042,10 @@
       <c r="G13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="I13" s="16" t="s">
+      <c r="I13" s="15" t="s">
         <v>60</v>
       </c>
       <c r="J13" s="8" t="s">
@@ -1963,26 +2061,516 @@
       <c r="R13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="S13" s="15"/>
-    </row>
-    <row r="14" s="7" customFormat="1" spans="10:10">
-      <c r="J14" s="14"/>
+      <c r="S13" s="14"/>
+    </row>
+    <row r="14" s="7" customFormat="1" spans="1:19">
+      <c r="A14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="8">
+        <v>13</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="8">
+        <v>1</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S14" s="14"/>
+    </row>
+    <row r="15" s="7" customFormat="1" spans="1:19">
+      <c r="A15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="8">
+        <v>14</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="8">
+        <v>1</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S15" s="14"/>
+    </row>
+    <row r="16" s="7" customFormat="1" spans="1:19">
+      <c r="A16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="8">
+        <v>15</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="8">
+        <v>1</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S16" s="14"/>
+    </row>
+    <row r="17" s="7" customFormat="1" spans="1:19">
+      <c r="A17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="8">
+        <v>16</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="8">
+        <v>1</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S17" s="14"/>
+    </row>
+    <row r="18" s="7" customFormat="1" spans="1:19">
+      <c r="A18" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="8">
+        <v>17</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="8">
+        <v>1</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S18" s="14"/>
+    </row>
+    <row r="19" s="7" customFormat="1" spans="1:19">
+      <c r="A19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="8">
+        <v>18</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="8">
+        <v>1</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S19" s="14"/>
+    </row>
+    <row r="20" s="7" customFormat="1" spans="1:19">
+      <c r="A20" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="8">
+        <v>19</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="8">
+        <v>1</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S20" s="14"/>
+    </row>
+    <row r="21" s="7" customFormat="1" spans="1:19">
+      <c r="A21" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="8">
+        <v>20</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="8">
+        <v>1</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S21" s="14"/>
+    </row>
+    <row r="22" s="7" customFormat="1" spans="1:19">
+      <c r="A22" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="8">
+        <v>21</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="8">
+        <v>1</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S22" s="14"/>
+    </row>
+    <row r="23" s="7" customFormat="1" spans="1:19">
+      <c r="A23" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="8">
+        <v>22</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="8">
+        <v>1</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S23" s="14"/>
+    </row>
+    <row r="24" s="7" customFormat="1" spans="1:19">
+      <c r="A24" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="8">
+        <v>23</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="8">
+        <v>1</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S24" s="14"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B13">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="B16">
+    <cfRule type="expression" dxfId="0" priority="9">
+      <formula>B16&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17">
+    <cfRule type="expression" dxfId="0" priority="8">
+      <formula>B17&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18">
+    <cfRule type="expression" dxfId="0" priority="7">
+      <formula>B18&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B15">
+    <cfRule type="expression" dxfId="0" priority="11">
       <formula>B2&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:B24">
+    <cfRule type="expression" dxfId="0" priority="6">
+      <formula>B19&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1 P1">
       <formula1>"等于,大于,小于,大于等于,小于等于"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A15 A16 A17 A18 A19 A20 A21 A22 A23 A24 A1:A12 A13:A14">
       <formula1>"NI 联网核查,BN 黑名单,DS 双屏确认"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
@@ -1997,7 +2585,7 @@
       <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="18" style="2" customWidth="1"/>
     <col min="2" max="2" width="13.25" customWidth="1"/>
@@ -2006,13 +2594,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2023,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2034,7 +2622,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2045,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2056,7 +2644,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2067,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2078,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2089,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2100,7 +2688,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2111,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2122,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2133,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2144,7 +2732,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2155,7 +2743,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2166,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2177,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2188,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2199,7 +2787,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2210,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2221,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2232,7 +2820,7 @@
         <v>0</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2243,7 +2831,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2254,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2265,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2276,7 +2864,7 @@
         <v>0</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2287,7 +2875,7 @@
         <v>0</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2298,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2309,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2320,7 +2908,7 @@
         <v>0</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2331,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2342,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2353,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2364,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2375,7 +2963,7 @@
         <v>0</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2386,11 +2974,11 @@
         <v>0</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
@@ -2401,27 +2989,27 @@
   <sheetPr/>
   <dimension ref="A2:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="40.5" spans="1:1">
+    <row r="2" ht="40.8" spans="1:1">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>

--- a/src/blackList/黑名单.xlsx
+++ b/src/blackList/黑名单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22488" windowHeight="9420"/>
+    <workbookView windowWidth="20490" windowHeight="8820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="172">
   <si>
     <t>NI 联网核查</t>
   </si>
@@ -298,6 +298,126 @@
   </si>
   <si>
     <t>00303002_01</t>
+  </si>
+  <si>
+    <t>00201018</t>
+  </si>
+  <si>
+    <t>00201018_01</t>
+  </si>
+  <si>
+    <t>00201011</t>
+  </si>
+  <si>
+    <t>00201011_01</t>
+  </si>
+  <si>
+    <t>00201012</t>
+  </si>
+  <si>
+    <t>00201012_01</t>
+  </si>
+  <si>
+    <t>00303005</t>
+  </si>
+  <si>
+    <t>00303005_01</t>
+  </si>
+  <si>
+    <t>00302022</t>
+  </si>
+  <si>
+    <t>00302022_01</t>
+  </si>
+  <si>
+    <t>00302021</t>
+  </si>
+  <si>
+    <t>00302021_01</t>
+  </si>
+  <si>
+    <t>00201017</t>
+  </si>
+  <si>
+    <t>00201017_01</t>
+  </si>
+  <si>
+    <t>00201017_02</t>
+  </si>
+  <si>
+    <t>00201014</t>
+  </si>
+  <si>
+    <t>00201014_01</t>
+  </si>
+  <si>
+    <t>00201014_02</t>
+  </si>
+  <si>
+    <t>00201015</t>
+  </si>
+  <si>
+    <t>00201015_01</t>
+  </si>
+  <si>
+    <t>00201015_02</t>
+  </si>
+  <si>
+    <t>00301013</t>
+  </si>
+  <si>
+    <t>00301013_01</t>
+  </si>
+  <si>
+    <t>00302011_02</t>
+  </si>
+  <si>
+    <t>00201009</t>
+  </si>
+  <si>
+    <t>00201009_01</t>
+  </si>
+  <si>
+    <t>00302016</t>
+  </si>
+  <si>
+    <t>00302016_01</t>
+  </si>
+  <si>
+    <t>00302016_02</t>
+  </si>
+  <si>
+    <t>00302016_03</t>
+  </si>
+  <si>
+    <t>00302014</t>
+  </si>
+  <si>
+    <t>00302014_01</t>
+  </si>
+  <si>
+    <t>00302014_02</t>
+  </si>
+  <si>
+    <t>00303003_2</t>
+  </si>
+  <si>
+    <t>00303003_2_01</t>
+  </si>
+  <si>
+    <t>00303003_2_02</t>
+  </si>
+  <si>
+    <t>00303003_2_03</t>
+  </si>
+  <si>
+    <t>00301007</t>
+  </si>
+  <si>
+    <t>00301007_01</t>
+  </si>
+  <si>
+    <t>00301007_02</t>
   </si>
   <si>
     <t>代码</t>
@@ -420,8 +540,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -456,14 +576,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -471,32 +584,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -507,9 +613,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -538,46 +644,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -597,6 +687,36 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -607,7 +727,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.799829096346934"/>
+        <fgColor theme="3" tint="0.799798577837458"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,7 +739,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,13 +757,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -649,31 +853,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,85 +907,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -775,31 +919,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -828,51 +948,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -889,6 +970,39 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -911,17 +1025,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -933,10 +1053,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -945,133 +1065,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1469,26 +1589,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S24"/>
+  <dimension ref="A1:S57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11" style="7" customWidth="1"/>
     <col min="2" max="8" width="9" style="7"/>
     <col min="9" max="9" width="27" style="7" customWidth="1"/>
     <col min="10" max="10" width="15.5" style="7" customWidth="1"/>
-    <col min="11" max="11" width="24.5833333333333" style="7" customWidth="1"/>
+    <col min="11" max="11" width="24.5" style="7" customWidth="1"/>
     <col min="12" max="17" width="9" style="7"/>
-    <col min="18" max="18" width="28.3333333333333" style="7" customWidth="1"/>
+    <col min="18" max="18" width="28.375" style="7" customWidth="1"/>
     <col min="19" max="19" width="19.25" style="7" customWidth="1"/>
     <col min="20" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" ht="61.2" spans="1:19">
+    <row r="1" ht="60.75" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1547,7 +1667,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" s="7" customFormat="1" spans="1:19">
+    <row r="2" spans="1:19">
       <c r="A2" s="8" t="s">
         <v>19</v>
       </c>
@@ -1590,7 +1710,7 @@
       </c>
       <c r="S2" s="14"/>
     </row>
-    <row r="3" s="7" customFormat="1" spans="1:19">
+    <row r="3" spans="1:19">
       <c r="A3" s="8" t="s">
         <v>19</v>
       </c>
@@ -1633,7 +1753,7 @@
       </c>
       <c r="S3" s="14"/>
     </row>
-    <row r="4" s="7" customFormat="1" spans="1:19">
+    <row r="4" spans="1:19">
       <c r="A4" s="8" t="s">
         <v>19</v>
       </c>
@@ -1676,7 +1796,7 @@
       </c>
       <c r="S4" s="14"/>
     </row>
-    <row r="5" s="7" customFormat="1" spans="1:19">
+    <row r="5" spans="1:19">
       <c r="A5" s="8" t="s">
         <v>19</v>
       </c>
@@ -1719,7 +1839,7 @@
       </c>
       <c r="S5" s="14"/>
     </row>
-    <row r="6" s="7" customFormat="1" spans="1:19">
+    <row r="6" spans="1:19">
       <c r="A6" s="8" t="s">
         <v>19</v>
       </c>
@@ -1762,7 +1882,7 @@
       </c>
       <c r="S6" s="14"/>
     </row>
-    <row r="7" s="7" customFormat="1" spans="1:19">
+    <row r="7" ht="15" spans="1:19">
       <c r="A7" s="8" t="s">
         <v>19</v>
       </c>
@@ -1805,7 +1925,7 @@
       </c>
       <c r="S7" s="14"/>
     </row>
-    <row r="8" s="7" customFormat="1" spans="1:19">
+    <row r="8" ht="15" spans="1:19">
       <c r="A8" s="8" t="s">
         <v>19</v>
       </c>
@@ -1848,7 +1968,7 @@
       </c>
       <c r="S8" s="14"/>
     </row>
-    <row r="9" s="7" customFormat="1" spans="1:19">
+    <row r="9" spans="1:19">
       <c r="A9" s="8" t="s">
         <v>19</v>
       </c>
@@ -1891,7 +2011,7 @@
       </c>
       <c r="S9" s="14"/>
     </row>
-    <row r="10" s="7" customFormat="1" spans="1:19">
+    <row r="10" spans="1:19">
       <c r="A10" s="8" t="s">
         <v>19</v>
       </c>
@@ -1934,7 +2054,7 @@
       </c>
       <c r="S10" s="14"/>
     </row>
-    <row r="11" s="7" customFormat="1" spans="1:19">
+    <row r="11" spans="1:19">
       <c r="A11" s="8" t="s">
         <v>19</v>
       </c>
@@ -1977,7 +2097,7 @@
       </c>
       <c r="S11" s="14"/>
     </row>
-    <row r="12" s="7" customFormat="1" spans="1:19">
+    <row r="12" spans="1:19">
       <c r="A12" s="8" t="s">
         <v>19</v>
       </c>
@@ -2020,7 +2140,7 @@
       </c>
       <c r="S12" s="14"/>
     </row>
-    <row r="13" s="7" customFormat="1" spans="1:19">
+    <row r="13" spans="1:19">
       <c r="A13" s="8" t="s">
         <v>19</v>
       </c>
@@ -2063,7 +2183,7 @@
       </c>
       <c r="S13" s="14"/>
     </row>
-    <row r="14" s="7" customFormat="1" spans="1:19">
+    <row r="14" spans="1:19">
       <c r="A14" s="8" t="s">
         <v>19</v>
       </c>
@@ -2106,7 +2226,7 @@
       </c>
       <c r="S14" s="14"/>
     </row>
-    <row r="15" s="7" customFormat="1" spans="1:19">
+    <row r="15" spans="1:19">
       <c r="A15" s="8" t="s">
         <v>19</v>
       </c>
@@ -2149,7 +2269,7 @@
       </c>
       <c r="S15" s="14"/>
     </row>
-    <row r="16" s="7" customFormat="1" spans="1:19">
+    <row r="16" spans="1:19">
       <c r="A16" s="8" t="s">
         <v>19</v>
       </c>
@@ -2192,7 +2312,7 @@
       </c>
       <c r="S16" s="14"/>
     </row>
-    <row r="17" s="7" customFormat="1" spans="1:19">
+    <row r="17" spans="1:19">
       <c r="A17" s="8" t="s">
         <v>19</v>
       </c>
@@ -2235,7 +2355,7 @@
       </c>
       <c r="S17" s="14"/>
     </row>
-    <row r="18" s="7" customFormat="1" spans="1:19">
+    <row r="18" spans="1:19">
       <c r="A18" s="8" t="s">
         <v>19</v>
       </c>
@@ -2278,7 +2398,7 @@
       </c>
       <c r="S18" s="14"/>
     </row>
-    <row r="19" s="7" customFormat="1" spans="1:19">
+    <row r="19" spans="1:19">
       <c r="A19" s="8" t="s">
         <v>19</v>
       </c>
@@ -2321,7 +2441,7 @@
       </c>
       <c r="S19" s="14"/>
     </row>
-    <row r="20" s="7" customFormat="1" spans="1:19">
+    <row r="20" spans="1:19">
       <c r="A20" s="8" t="s">
         <v>19</v>
       </c>
@@ -2364,7 +2484,7 @@
       </c>
       <c r="S20" s="14"/>
     </row>
-    <row r="21" s="7" customFormat="1" spans="1:19">
+    <row r="21" spans="1:19">
       <c r="A21" s="8" t="s">
         <v>19</v>
       </c>
@@ -2407,7 +2527,7 @@
       </c>
       <c r="S21" s="14"/>
     </row>
-    <row r="22" s="7" customFormat="1" spans="1:19">
+    <row r="22" spans="1:19">
       <c r="A22" s="8" t="s">
         <v>19</v>
       </c>
@@ -2450,7 +2570,7 @@
       </c>
       <c r="S22" s="14"/>
     </row>
-    <row r="23" s="7" customFormat="1" spans="1:19">
+    <row r="23" spans="1:19">
       <c r="A23" s="8" t="s">
         <v>19</v>
       </c>
@@ -2493,7 +2613,7 @@
       </c>
       <c r="S23" s="14"/>
     </row>
-    <row r="24" s="7" customFormat="1" spans="1:19">
+    <row r="24" spans="1:19">
       <c r="A24" s="8" t="s">
         <v>19</v>
       </c>
@@ -2536,29 +2656,1070 @@
       </c>
       <c r="S24" s="14"/>
     </row>
+    <row r="25" spans="1:19">
+      <c r="A25" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="8">
+        <v>23</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="8">
+        <v>1</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S25" s="14"/>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="8">
+        <v>23</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="8">
+        <v>1</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S26" s="14"/>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="8">
+        <v>23</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="8">
+        <v>1</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S27" s="14"/>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="8">
+        <v>23</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="8">
+        <v>1</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S28" s="14"/>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="8">
+        <v>23</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="8">
+        <v>1</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S29" s="14"/>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="8">
+        <v>23</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="8">
+        <v>1</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S30" s="14"/>
+    </row>
+    <row r="31" spans="5:19">
+      <c r="E31" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="8">
+        <v>1</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S31" s="14"/>
+    </row>
+    <row r="32" spans="5:19">
+      <c r="E32" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="8">
+        <v>1</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S32" s="14"/>
+    </row>
+    <row r="33" spans="5:19">
+      <c r="E33" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="8">
+        <v>1</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S33" s="14"/>
+    </row>
+    <row r="34" spans="5:19">
+      <c r="E34" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="8">
+        <v>1</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S34" s="14"/>
+    </row>
+    <row r="35" spans="5:19">
+      <c r="E35" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="8">
+        <v>1</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S35" s="14"/>
+    </row>
+    <row r="36" spans="5:19">
+      <c r="E36" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" s="8">
+        <v>1</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S36" s="14"/>
+    </row>
+    <row r="37" spans="5:19">
+      <c r="E37" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" s="8">
+        <v>1</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S37" s="14"/>
+    </row>
+    <row r="38" spans="5:19">
+      <c r="E38" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" s="8">
+        <v>1</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S38" s="14"/>
+    </row>
+    <row r="39" spans="5:19">
+      <c r="E39" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" s="8">
+        <v>1</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S39" s="14"/>
+    </row>
+    <row r="40" spans="5:19">
+      <c r="E40" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" s="8">
+        <v>1</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S40" s="14"/>
+    </row>
+    <row r="41" spans="5:19">
+      <c r="E41" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41" s="8">
+        <v>1</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="14"/>
+      <c r="R41" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S41" s="14"/>
+    </row>
+    <row r="42" spans="5:19">
+      <c r="E42" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F42" s="8">
+        <v>1</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="14"/>
+      <c r="R42" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S42" s="14"/>
+    </row>
+    <row r="43" spans="5:19">
+      <c r="E43" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43" s="8">
+        <v>1</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="14"/>
+      <c r="R43" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S43" s="14"/>
+    </row>
+    <row r="44" spans="5:19">
+      <c r="E44" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44" s="8">
+        <v>1</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="I44" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="J44" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="14"/>
+      <c r="R44" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S44" s="14"/>
+    </row>
+    <row r="45" spans="5:19">
+      <c r="E45" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F45" s="8">
+        <v>1</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="I45" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="J45" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="14"/>
+      <c r="O45" s="14"/>
+      <c r="P45" s="14"/>
+      <c r="Q45" s="14"/>
+      <c r="R45" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S45" s="14"/>
+    </row>
+    <row r="46" spans="5:19">
+      <c r="E46" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" s="8">
+        <v>1</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="I46" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="J46" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="14"/>
+      <c r="O46" s="14"/>
+      <c r="P46" s="14"/>
+      <c r="Q46" s="14"/>
+      <c r="R46" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S46" s="14"/>
+    </row>
+    <row r="47" spans="5:19">
+      <c r="E47" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F47" s="8">
+        <v>1</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="I47" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="J47" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K47" s="14"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="14"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="14"/>
+      <c r="Q47" s="14"/>
+      <c r="R47" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S47" s="14"/>
+    </row>
+    <row r="48" spans="5:19">
+      <c r="E48" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48" s="8">
+        <v>1</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="I48" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="J48" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="14"/>
+      <c r="P48" s="14"/>
+      <c r="Q48" s="14"/>
+      <c r="R48" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S48" s="14"/>
+    </row>
+    <row r="49" spans="5:19">
+      <c r="E49" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F49" s="8">
+        <v>1</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="J49" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="14"/>
+      <c r="O49" s="14"/>
+      <c r="P49" s="14"/>
+      <c r="Q49" s="14"/>
+      <c r="R49" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S49" s="14"/>
+    </row>
+    <row r="50" spans="5:19">
+      <c r="E50" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F50" s="8">
+        <v>1</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="I50" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="J50" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K50" s="14"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="14"/>
+      <c r="O50" s="14"/>
+      <c r="P50" s="14"/>
+      <c r="Q50" s="14"/>
+      <c r="R50" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S50" s="14"/>
+    </row>
+    <row r="51" spans="5:19">
+      <c r="E51" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F51" s="8">
+        <v>1</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="I51" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="J51" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K51" s="14"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="14"/>
+      <c r="O51" s="14"/>
+      <c r="P51" s="14"/>
+      <c r="Q51" s="14"/>
+      <c r="R51" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S51" s="14"/>
+    </row>
+    <row r="52" spans="5:19">
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="14"/>
+      <c r="N52" s="14"/>
+      <c r="O52" s="14"/>
+      <c r="P52" s="14"/>
+      <c r="Q52" s="14"/>
+      <c r="R52" s="8"/>
+      <c r="S52" s="14"/>
+    </row>
+    <row r="53" spans="5:19">
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="14"/>
+      <c r="O53" s="14"/>
+      <c r="P53" s="14"/>
+      <c r="Q53" s="14"/>
+      <c r="R53" s="8"/>
+      <c r="S53" s="14"/>
+    </row>
+    <row r="54" spans="5:19">
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="14"/>
+      <c r="N54" s="14"/>
+      <c r="O54" s="14"/>
+      <c r="P54" s="14"/>
+      <c r="Q54" s="14"/>
+      <c r="R54" s="8"/>
+      <c r="S54" s="14"/>
+    </row>
+    <row r="55" spans="5:19">
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="14"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="14"/>
+      <c r="N55" s="14"/>
+      <c r="O55" s="14"/>
+      <c r="P55" s="14"/>
+      <c r="Q55" s="14"/>
+      <c r="R55" s="8"/>
+      <c r="S55" s="14"/>
+    </row>
+    <row r="56" spans="5:19">
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="14"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="14"/>
+      <c r="N56" s="14"/>
+      <c r="O56" s="14"/>
+      <c r="P56" s="14"/>
+      <c r="Q56" s="14"/>
+      <c r="R56" s="8"/>
+      <c r="S56" s="14"/>
+    </row>
+    <row r="57" spans="5:19">
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="14"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="14"/>
+      <c r="N57" s="14"/>
+      <c r="O57" s="14"/>
+      <c r="P57" s="14"/>
+      <c r="Q57" s="14"/>
+      <c r="R57" s="8"/>
+      <c r="S57" s="14"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B16">
-    <cfRule type="expression" dxfId="0" priority="9">
+    <cfRule type="expression" dxfId="0" priority="15">
       <formula>B16&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="expression" dxfId="0" priority="8">
+    <cfRule type="expression" dxfId="0" priority="14">
       <formula>B17&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="0" priority="7">
+    <cfRule type="expression" dxfId="0" priority="13">
       <formula>B18&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B25">
+    <cfRule type="expression" dxfId="0" priority="6">
+      <formula>B25&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26">
+    <cfRule type="expression" dxfId="0" priority="5">
+      <formula>B26&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27">
+    <cfRule type="expression" dxfId="0" priority="4">
+      <formula>B27&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28">
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>B28&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>B29&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>B30&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B2:B15">
-    <cfRule type="expression" dxfId="0" priority="11">
+    <cfRule type="expression" dxfId="0" priority="17">
       <formula>B2&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B24">
-    <cfRule type="expression" dxfId="0" priority="6">
+    <cfRule type="expression" dxfId="0" priority="12">
       <formula>B19&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2566,7 +3727,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1 P1">
       <formula1>"等于,大于,小于,大于等于,小于等于"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A15 A16 A17 A18 A19 A20 A21 A22 A23 A24 A1:A12 A13:A14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A30">
       <formula1>"NI 联网核查,BN 黑名单,DS 双屏确认"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2585,7 +3746,7 @@
       <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="18" style="2" customWidth="1"/>
     <col min="2" max="2" width="13.25" customWidth="1"/>
@@ -2594,13 +3755,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>96</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2611,7 +3772,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2622,7 +3783,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2633,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>99</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2644,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>100</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2655,7 +3816,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2666,7 +3827,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2677,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>103</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2688,7 +3849,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>104</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2699,7 +3860,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>105</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2710,7 +3871,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>106</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2721,7 +3882,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2732,7 +3893,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2743,7 +3904,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>109</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2754,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>110</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2765,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>111</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2776,7 +3937,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>112</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2787,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>113</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2798,7 +3959,7 @@
         <v>0</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>114</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2809,7 +3970,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>115</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2820,7 +3981,7 @@
         <v>0</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>116</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2831,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>117</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2842,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>118</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2853,7 +4014,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2864,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2875,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2886,7 +4047,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2897,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2908,7 +4069,7 @@
         <v>0</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2919,7 +4080,7 @@
         <v>0</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>125</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2930,7 +4091,7 @@
         <v>0</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2941,7 +4102,7 @@
         <v>0</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2952,7 +4113,7 @@
         <v>0</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2963,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>129</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2974,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2993,19 +4154,19 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="40.8" spans="1:1">
+    <row r="2" ht="20.25" spans="1:1">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/src/blackList/黑名单.xlsx
+++ b/src/blackList/黑名单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="8820"/>
+    <workbookView windowWidth="20490" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="177">
   <si>
     <t>NI 联网核查</t>
   </si>
@@ -418,6 +418,21 @@
   </si>
   <si>
     <t>00301007_02</t>
+  </si>
+  <si>
+    <t>00103005</t>
+  </si>
+  <si>
+    <t>00103005_01</t>
+  </si>
+  <si>
+    <t>BN00024</t>
+  </si>
+  <si>
+    <t>00302001</t>
+  </si>
+  <si>
+    <t>00302001_01</t>
   </si>
   <si>
     <t>代码</t>
@@ -539,9 +554,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -574,9 +589,106 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -591,70 +703,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -667,29 +719,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -698,21 +728,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -739,7 +754,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,13 +808,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -769,67 +868,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -847,31 +892,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -889,7 +910,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -907,19 +928,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -950,26 +965,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -979,6 +977,32 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1007,26 +1031,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1053,10 +1068,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1065,16 +1080,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1083,115 +1098,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1591,8 +1606,8 @@
   <sheetPr/>
   <dimension ref="A1:S57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I59" sqref="I59"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1603,7 +1618,7 @@
     <col min="10" max="10" width="15.5" style="7" customWidth="1"/>
     <col min="11" max="11" width="24.5" style="7" customWidth="1"/>
     <col min="12" max="17" width="9" style="7"/>
-    <col min="18" max="18" width="28.375" style="7" customWidth="1"/>
+    <col min="18" max="18" width="28.3833333333333" style="7" customWidth="1"/>
     <col min="19" max="19" width="19.25" style="7" customWidth="1"/>
     <col min="20" max="16384" width="9" style="7"/>
   </cols>
@@ -2664,7 +2679,7 @@
         <v>91</v>
       </c>
       <c r="C25" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>21</v>
@@ -2707,7 +2722,7 @@
         <v>91</v>
       </c>
       <c r="C26" s="8">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>21</v>
@@ -2750,7 +2765,7 @@
         <v>91</v>
       </c>
       <c r="C27" s="8">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>21</v>
@@ -2793,7 +2808,7 @@
         <v>91</v>
       </c>
       <c r="C28" s="8">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>21</v>
@@ -2836,7 +2851,7 @@
         <v>91</v>
       </c>
       <c r="C29" s="8">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>21</v>
@@ -2879,7 +2894,7 @@
         <v>91</v>
       </c>
       <c r="C30" s="8">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>21</v>
@@ -2914,7 +2929,19 @@
       </c>
       <c r="S30" s="14"/>
     </row>
-    <row r="31" spans="5:19">
+    <row r="31" spans="1:19">
+      <c r="A31" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="8">
+        <v>30</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="E31" s="8" t="s">
         <v>22</v>
       </c>
@@ -2945,7 +2972,19 @@
       </c>
       <c r="S31" s="14"/>
     </row>
-    <row r="32" spans="5:19">
+    <row r="32" spans="1:19">
+      <c r="A32" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="8">
+        <v>31</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="E32" s="8" t="s">
         <v>22</v>
       </c>
@@ -2976,7 +3015,19 @@
       </c>
       <c r="S32" s="14"/>
     </row>
-    <row r="33" spans="5:19">
+    <row r="33" spans="1:19">
+      <c r="A33" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="8">
+        <v>32</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="E33" s="8" t="s">
         <v>22</v>
       </c>
@@ -3007,7 +3058,19 @@
       </c>
       <c r="S33" s="14"/>
     </row>
-    <row r="34" spans="5:19">
+    <row r="34" spans="1:19">
+      <c r="A34" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="8">
+        <v>33</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="E34" s="8" t="s">
         <v>22</v>
       </c>
@@ -3038,7 +3101,19 @@
       </c>
       <c r="S34" s="14"/>
     </row>
-    <row r="35" spans="5:19">
+    <row r="35" spans="1:19">
+      <c r="A35" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="8">
+        <v>34</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="E35" s="8" t="s">
         <v>22</v>
       </c>
@@ -3069,7 +3144,19 @@
       </c>
       <c r="S35" s="14"/>
     </row>
-    <row r="36" spans="5:19">
+    <row r="36" spans="1:19">
+      <c r="A36" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="8">
+        <v>35</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="E36" s="8" t="s">
         <v>22</v>
       </c>
@@ -3100,7 +3187,19 @@
       </c>
       <c r="S36" s="14"/>
     </row>
-    <row r="37" spans="5:19">
+    <row r="37" spans="1:19">
+      <c r="A37" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="8">
+        <v>36</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="E37" s="8" t="s">
         <v>22</v>
       </c>
@@ -3131,7 +3230,19 @@
       </c>
       <c r="S37" s="14"/>
     </row>
-    <row r="38" spans="5:19">
+    <row r="38" spans="1:19">
+      <c r="A38" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" s="8">
+        <v>37</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="E38" s="8" t="s">
         <v>22</v>
       </c>
@@ -3162,7 +3273,19 @@
       </c>
       <c r="S38" s="14"/>
     </row>
-    <row r="39" spans="5:19">
+    <row r="39" spans="1:19">
+      <c r="A39" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="8">
+        <v>38</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="E39" s="8" t="s">
         <v>22</v>
       </c>
@@ -3193,7 +3316,19 @@
       </c>
       <c r="S39" s="14"/>
     </row>
-    <row r="40" spans="5:19">
+    <row r="40" spans="1:19">
+      <c r="A40" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="8">
+        <v>39</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="E40" s="8" t="s">
         <v>22</v>
       </c>
@@ -3224,7 +3359,19 @@
       </c>
       <c r="S40" s="14"/>
     </row>
-    <row r="41" spans="5:19">
+    <row r="41" spans="1:19">
+      <c r="A41" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" s="8">
+        <v>40</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="E41" s="8" t="s">
         <v>22</v>
       </c>
@@ -3255,7 +3402,19 @@
       </c>
       <c r="S41" s="14"/>
     </row>
-    <row r="42" spans="5:19">
+    <row r="42" spans="1:19">
+      <c r="A42" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" s="8">
+        <v>41</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="E42" s="8" t="s">
         <v>22</v>
       </c>
@@ -3286,7 +3445,19 @@
       </c>
       <c r="S42" s="14"/>
     </row>
-    <row r="43" spans="5:19">
+    <row r="43" spans="1:19">
+      <c r="A43" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="8">
+        <v>42</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="E43" s="8" t="s">
         <v>22</v>
       </c>
@@ -3317,7 +3488,19 @@
       </c>
       <c r="S43" s="14"/>
     </row>
-    <row r="44" spans="5:19">
+    <row r="44" spans="1:19">
+      <c r="A44" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="8">
+        <v>43</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="E44" s="8" t="s">
         <v>22</v>
       </c>
@@ -3348,7 +3531,19 @@
       </c>
       <c r="S44" s="14"/>
     </row>
-    <row r="45" spans="5:19">
+    <row r="45" spans="1:19">
+      <c r="A45" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" s="8">
+        <v>44</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="E45" s="8" t="s">
         <v>22</v>
       </c>
@@ -3379,7 +3574,19 @@
       </c>
       <c r="S45" s="14"/>
     </row>
-    <row r="46" spans="5:19">
+    <row r="46" spans="1:19">
+      <c r="A46" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" s="8">
+        <v>45</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="E46" s="8" t="s">
         <v>22</v>
       </c>
@@ -3410,7 +3617,19 @@
       </c>
       <c r="S46" s="14"/>
     </row>
-    <row r="47" spans="5:19">
+    <row r="47" spans="1:19">
+      <c r="A47" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" s="8">
+        <v>46</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="E47" s="8" t="s">
         <v>22</v>
       </c>
@@ -3441,7 +3660,19 @@
       </c>
       <c r="S47" s="14"/>
     </row>
-    <row r="48" spans="5:19">
+    <row r="48" spans="1:19">
+      <c r="A48" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48" s="8">
+        <v>47</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="E48" s="8" t="s">
         <v>22</v>
       </c>
@@ -3472,7 +3703,19 @@
       </c>
       <c r="S48" s="14"/>
     </row>
-    <row r="49" spans="5:19">
+    <row r="49" spans="1:19">
+      <c r="A49" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49" s="8">
+        <v>48</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="E49" s="8" t="s">
         <v>22</v>
       </c>
@@ -3503,7 +3746,19 @@
       </c>
       <c r="S49" s="14"/>
     </row>
-    <row r="50" spans="5:19">
+    <row r="50" spans="1:19">
+      <c r="A50" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C50" s="8">
+        <v>49</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="E50" s="8" t="s">
         <v>22</v>
       </c>
@@ -3534,7 +3789,19 @@
       </c>
       <c r="S50" s="14"/>
     </row>
-    <row r="51" spans="5:19">
+    <row r="51" spans="1:19">
+      <c r="A51" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" s="8">
+        <v>50</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="E51" s="8" t="s">
         <v>22</v>
       </c>
@@ -3565,13 +3832,37 @@
       </c>
       <c r="S51" s="14"/>
     </row>
-    <row r="52" spans="5:19">
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="8"/>
+    <row r="52" spans="1:19">
+      <c r="A52" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C52" s="8">
+        <v>51</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F52" s="8">
+        <v>1</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="J52" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="K52" s="14"/>
       <c r="L52" s="14"/>
       <c r="M52" s="14"/>
@@ -3579,16 +3870,42 @@
       <c r="O52" s="14"/>
       <c r="P52" s="14"/>
       <c r="Q52" s="14"/>
-      <c r="R52" s="8"/>
+      <c r="R52" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="S52" s="14"/>
     </row>
-    <row r="53" spans="5:19">
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="8"/>
+    <row r="53" spans="1:19">
+      <c r="A53" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C53" s="8">
+        <v>52</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F53" s="8">
+        <v>1</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="I53" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="J53" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="K53" s="14"/>
       <c r="L53" s="14"/>
       <c r="M53" s="14"/>
@@ -3669,57 +3986,172 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B16">
-    <cfRule type="expression" dxfId="0" priority="15">
+    <cfRule type="expression" dxfId="0" priority="38">
       <formula>B16&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="expression" dxfId="0" priority="14">
+    <cfRule type="expression" dxfId="0" priority="37">
       <formula>B17&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="0" priority="13">
+    <cfRule type="expression" dxfId="0" priority="36">
       <formula>B18&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="expression" dxfId="0" priority="6">
+    <cfRule type="expression" dxfId="0" priority="29">
       <formula>B25&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="expression" dxfId="0" priority="5">
+    <cfRule type="expression" dxfId="0" priority="28">
       <formula>B26&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="expression" dxfId="0" priority="4">
+    <cfRule type="expression" dxfId="0" priority="27">
       <formula>B27&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="0" priority="26">
       <formula>B28&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="0" priority="25">
       <formula>B29&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="0" priority="24">
       <formula>B30&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B31">
+    <cfRule type="expression" dxfId="0" priority="23">
+      <formula>B31&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32">
+    <cfRule type="expression" dxfId="0" priority="22">
+      <formula>B32&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33">
+    <cfRule type="expression" dxfId="0" priority="21">
+      <formula>B33&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34">
+    <cfRule type="expression" dxfId="0" priority="20">
+      <formula>B34&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35">
+    <cfRule type="expression" dxfId="0" priority="19">
+      <formula>B35&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36">
+    <cfRule type="expression" dxfId="0" priority="18">
+      <formula>B36&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37">
+    <cfRule type="expression" dxfId="0" priority="17">
+      <formula>B37&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38">
+    <cfRule type="expression" dxfId="0" priority="16">
+      <formula>B38&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B39">
+    <cfRule type="expression" dxfId="0" priority="15">
+      <formula>B39&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40">
+    <cfRule type="expression" dxfId="0" priority="14">
+      <formula>B40&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B41">
+    <cfRule type="expression" dxfId="0" priority="13">
+      <formula>B41&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42">
+    <cfRule type="expression" dxfId="0" priority="12">
+      <formula>B42&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43">
+    <cfRule type="expression" dxfId="0" priority="11">
+      <formula>B43&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44">
+    <cfRule type="expression" dxfId="0" priority="10">
+      <formula>B44&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45">
+    <cfRule type="expression" dxfId="0" priority="9">
+      <formula>B45&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B46">
+    <cfRule type="expression" dxfId="0" priority="8">
+      <formula>B46&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47">
+    <cfRule type="expression" dxfId="0" priority="7">
+      <formula>B47&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B48">
+    <cfRule type="expression" dxfId="0" priority="6">
+      <formula>B48&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B49">
+    <cfRule type="expression" dxfId="0" priority="5">
+      <formula>B49&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50">
+    <cfRule type="expression" dxfId="0" priority="4">
+      <formula>B50&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B51">
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>B51&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B52">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>B52&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B53">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>B53&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B2:B15">
-    <cfRule type="expression" dxfId="0" priority="17">
+    <cfRule type="expression" dxfId="0" priority="40">
       <formula>B2&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B24">
-    <cfRule type="expression" dxfId="0" priority="12">
+    <cfRule type="expression" dxfId="0" priority="35">
       <formula>B19&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3727,7 +4159,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1 P1">
       <formula1>"等于,大于,小于,大于等于,小于等于"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A31 A32 A33 A34 A35 A36 A37 A38 A39 A40 A41 A42 A43 A44 A45 A46 A47 A48 A49 A50 A51 A52 A53 A1:A30">
       <formula1>"NI 联网核查,BN 黑名单,DS 双屏确认"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3755,13 +4187,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3772,7 +4204,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3783,7 +4215,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3794,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3805,7 +4237,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3816,7 +4248,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3827,7 +4259,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3838,7 +4270,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3849,7 +4281,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3860,7 +4292,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3871,7 +4303,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3882,7 +4314,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3893,7 +4325,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3904,7 +4336,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3915,7 +4347,7 @@
         <v>0</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3926,7 +4358,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3937,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3948,7 +4380,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3959,7 +4391,7 @@
         <v>0</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3970,7 +4402,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3981,7 +4413,7 @@
         <v>0</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3992,7 +4424,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4003,7 +4435,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -4014,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -4025,7 +4457,7 @@
         <v>0</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -4036,7 +4468,7 @@
         <v>0</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -4047,7 +4479,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -4058,7 +4490,7 @@
         <v>0</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -4069,7 +4501,7 @@
         <v>0</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -4080,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -4091,7 +4523,7 @@
         <v>0</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -4102,7 +4534,7 @@
         <v>0</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -4113,7 +4545,7 @@
         <v>0</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -4124,7 +4556,7 @@
         <v>0</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -4135,7 +4567,7 @@
         <v>0</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -4166,7 +4598,7 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
